--- a/simulations/raw_inclusion_exclusion/Walker_2018 IEC/output/tables/metrics/metrics_sim.xlsx
+++ b/simulations/raw_inclusion_exclusion/Walker_2018 IEC/output/tables/metrics/metrics_sim.xlsx
@@ -713,10 +713,10 @@
         <v>36</v>
       </c>
       <c r="C3">
-        <v>0.7375328083989501</v>
+        <v>0.7244094488188977</v>
       </c>
       <c r="D3">
-        <v>0.9094488188976378</v>
+        <v>0.9068241469816273</v>
       </c>
       <c r="E3">
         <v>0.9803149606299213</v>
@@ -728,16 +728,16 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0.5831317829457364</v>
+        <v>0.593343669250646</v>
       </c>
       <c r="I3">
-        <v>0.08695363366265627</v>
+        <v>0.07898692504026751</v>
       </c>
       <c r="J3">
-        <v>0.6377952755905512</v>
+        <v>0.6246719160104987</v>
       </c>
       <c r="K3">
-        <v>4521.623359580052</v>
+        <v>4142.304461942257</v>
       </c>
       <c r="L3">
         <v>76</v>
@@ -755,34 +755,34 @@
         <v>685</v>
       </c>
       <c r="Q3">
-        <v>988</v>
+        <v>43</v>
       </c>
       <c r="R3">
-        <v>1073</v>
+        <v>188</v>
       </c>
       <c r="S3">
-        <v>1943</v>
+        <v>1347</v>
       </c>
       <c r="T3">
-        <v>4365</v>
+        <v>4881</v>
       </c>
       <c r="U3">
-        <v>10410</v>
+        <v>10614</v>
       </c>
       <c r="V3">
-        <v>46625</v>
+        <v>47570</v>
       </c>
       <c r="W3">
-        <v>46540</v>
+        <v>47425</v>
       </c>
       <c r="X3">
-        <v>45670</v>
+        <v>46266</v>
       </c>
       <c r="Y3">
-        <v>43248</v>
+        <v>42732</v>
       </c>
       <c r="Z3">
-        <v>37203</v>
+        <v>36999</v>
       </c>
       <c r="AA3">
         <v>686</v>
@@ -800,19 +800,19 @@
         <v>77</v>
       </c>
       <c r="AF3">
-        <v>0.979249</v>
+        <v>0.999097</v>
       </c>
       <c r="AG3">
-        <v>0.977464</v>
+        <v>0.996051</v>
       </c>
       <c r="AH3">
-        <v>0.959192</v>
+        <v>0.971709</v>
       </c>
       <c r="AI3">
-        <v>0.908323</v>
+        <v>0.897486</v>
       </c>
       <c r="AJ3">
-        <v>0.781362</v>
+        <v>0.777078</v>
       </c>
     </row>
   </sheetData>
